--- a/downloaded_files/EECS102_Lecture-35279.xlsx
+++ b/downloaded_files/EECS102_Lecture-35279.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Tarek Abdellatif Mohamed Khatib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
   </x:si>
   <x:si>
     <x:t>1240301</x:t>
@@ -500,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -800,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -810,7 +819,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.950625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="58.230625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1083,7 +1092,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45921.6244441782</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1275,7 +1284,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1307,7 +1316,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1335,9 +1344,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1360,16 +1371,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6653128125</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.6653128125</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1849,7 +1858,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1881,7 +1890,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1913,7 +1922,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6735613079</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1945,7 +1954,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45907.6735613079</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1977,7 +1986,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2009,7 +2018,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2041,7 +2050,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2069,9 +2078,11 @@
       <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s"/>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6747354167</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2094,16 +2105,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
+      <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6747354167</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2152,6 +2161,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35279.xlsx
+++ b/downloaded_files/EECS102_Lecture-35279.xlsx
@@ -69,15 +69,6 @@
     <x:t>Amin Hatem Ali Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>امينه امجد رخا احمد حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amina Amgad Rakha Ahmed Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240295</x:t>
   </x:si>
   <x:si>
@@ -208,6 +199,15 @@
   </x:si>
   <x:si>
     <x:t>Abdulrahman Ahmed Mahmoud Ali Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
   </x:si>
   <x:si>
     <x:t>1240083</x:t>
@@ -1028,7 +1028,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.665140625</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1060,7 +1060,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45921.6244441782</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1092,7 +1092,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45921.6244441782</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1124,7 +1124,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1156,7 +1156,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.6651918634</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1188,7 +1188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1220,7 +1220,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1252,7 +1252,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1284,7 +1284,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1316,7 +1316,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1344,11 +1344,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1371,14 +1369,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1410,7 +1410,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1442,7 +1442,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1474,7 +1474,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1506,7 +1506,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45914.6653439468</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>

--- a/downloaded_files/EECS102_Lecture-35279.xlsx
+++ b/downloaded_files/EECS102_Lecture-35279.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -376,6 +376,15 @@
   </x:si>
   <x:si>
     <x:t>يحيى احمد فايز عبد الحليم نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1240397</x:t>
@@ -509,7 +518,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +818,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2144,7 +2153,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2176,7 +2185,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2193,6 +2202,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35279.xlsx
+++ b/downloaded_files/EECS102_Lecture-35279.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -376,15 +376,6 @@
   </x:si>
   <x:si>
     <x:t>يحيى احمد فايز عبد الحليم نصار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1240397</x:t>
@@ -518,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -818,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2153,7 +2144,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2185,7 +2176,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2202,38 +2193,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35279.xlsx
+++ b/downloaded_files/EECS102_Lecture-35279.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -162,7 +162,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1240316</x:t>
@@ -1344,7 +1347,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E16" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -1369,13 +1374,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45907.6650409375</x:v>
@@ -1401,13 +1406,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.6651076736</x:v>
@@ -1433,13 +1438,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45907.6647413194</x:v>
@@ -1465,13 +1470,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45907.6651743056</x:v>
@@ -1497,13 +1502,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45914.6653439468</x:v>
@@ -1529,13 +1534,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.6654596065</x:v>
@@ -1561,13 +1566,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45907.6648109143</x:v>
@@ -1593,13 +1598,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6651444097</x:v>
@@ -1625,13 +1630,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6648501968</x:v>
@@ -1657,13 +1662,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.6653128125</x:v>
@@ -1689,13 +1694,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45907.6646372685</x:v>
@@ -1721,13 +1726,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.6651312153</x:v>
@@ -1753,13 +1758,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.6648360764</x:v>
@@ -1785,13 +1790,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45907.6651607639</x:v>
@@ -1817,13 +1822,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45907.6648425926</x:v>
@@ -1849,13 +1854,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45907.6651833681</x:v>
@@ -1881,13 +1886,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45907.6650592245</x:v>
@@ -1913,13 +1918,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6655427431</x:v>
@@ -1945,13 +1950,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45907.6735613079</x:v>
@@ -1977,13 +1982,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.6653382755</x:v>
@@ -2009,13 +2014,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.6646564468</x:v>
@@ -2041,13 +2046,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.6654758102</x:v>
@@ -2073,13 +2078,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45907.6652534722</x:v>
@@ -2105,10 +2110,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
@@ -2135,13 +2140,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45907.6646291667</x:v>
@@ -2167,13 +2172,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.6653497338</x:v>
